--- a/APF/QA/RA006/QAP001_APF_RA006_APF0503_功能點擊紀錄.xlsx
+++ b/APF/QA/RA006/QAP001_APF_RA006_APF0503_功能點擊紀錄.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr hidePivotFieldList="1" defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\a8907010\Documents\suda3g\9. 品質管理\9.3 文件檢視記錄統計\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="1395" yWindow="180" windowWidth="10920" windowHeight="5700" tabRatio="549" activeTab="2"/>
   </bookViews>
@@ -14,9 +19,6 @@
     <sheet name="檢視重點項目" sheetId="26" r:id="rId5"/>
     <sheet name="檢視項目清單" sheetId="27" r:id="rId6"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId7"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">修訂履歷!$B$3:$E$5</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">檢視重點項目!$A$1:$L$173</definedName>
@@ -26,7 +28,7 @@
     <definedName name="原因分類">備註說明!$D$2:$D$8</definedName>
     <definedName name="植入Bug來源">備註說明!$A$2:$A$19</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -37,7 +39,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="F6" authorId="0">
+    <comment ref="F6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -52,7 +54,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J6" authorId="0">
+    <comment ref="J6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -67,7 +69,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K6" authorId="0">
+    <comment ref="K6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -82,7 +84,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L6" authorId="0">
+    <comment ref="L6" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -97,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q6" authorId="1">
+    <comment ref="Q6" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -122,7 +124,7 @@
     <author>AA</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0">
+    <comment ref="A2" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +154,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="929" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="951" uniqueCount="412">
   <si>
     <t>檢視面向</t>
     <phoneticPr fontId="20" type="noConversion"/>
@@ -2385,9 +2387,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>SA PM-3</t>
-  </si>
-  <si>
     <t>陳慕霖</t>
     <phoneticPr fontId="20" type="noConversion"/>
   </si>
@@ -2422,45 +2421,82 @@
     <t>SA PM-1</t>
   </si>
   <si>
+    <t>懿信</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料字典click_log異動</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Click_Log、Action_Log紀錄DB失敗時，應將當時資訊記錄成文字檔</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>在Click_log、Action_log寫入DB時發生錯誤時，呼叫記錄文字檔log的方法，將原本應紀錄在DB的資訊紀錄在文字檔內</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>懿信</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>考慮不足</t>
+  </si>
+  <si>
+    <t>功能分析</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>陳懿信</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>陳慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>傳勝、鈺杰、慕霖、懿信、英杰</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>鈺杰、慕霖</t>
+    <phoneticPr fontId="20" type="noConversion"/>
+  </si>
+  <si>
+    <t>根節點名稱原比照4F Framework開100 --&gt; 需調整縮小</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有Log相關紀錄中IP長度考量IPV6放寬</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
     <t>2</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>懿信</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>功能設計</t>
+  </si>
+  <si>
+    <t>SA PM-1</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
     <t>3</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>資料字典click_log異動</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.新增node_id欄位，紀錄點擊的功能node_id
-2.調整menu_path欄位長度為nvarchar(45) (含模組別+3層功能)</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>Click_Log、Action_Log紀錄DB失敗時，應將當時資訊記錄成文字檔</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>在Click_log、Action_log寫入DB時發生錯誤時，呼叫記錄文字檔log的方法，將原本應紀錄在DB的資訊紀錄在文字檔內</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>懿信</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.根節點名稱原比照4F Framework開100 --&gt; 需調整縮小
-2.所有Log相關紀錄中IP長度考量IPV6放寬</t>
-    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">新增node_id欄位，紀錄點擊的功能node_id
+</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>調整menu_path欄位長度為nvarchar(45) (含模組別+3層功能)</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
   </si>
 </sst>
 </file>
@@ -3939,13 +3975,13 @@
     <cellStyle name="輔色4" xfId="33" builtinId="41" customBuiltin="1"/>
     <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
     <cellStyle name="輔色6" xfId="35" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="標準_障害" xfId="36"/>
     <cellStyle name="標題" xfId="37" builtinId="15" customBuiltin="1"/>
     <cellStyle name="標題 1" xfId="38" builtinId="16" customBuiltin="1"/>
     <cellStyle name="標題 2" xfId="39" builtinId="17" customBuiltin="1"/>
     <cellStyle name="標題 3" xfId="40" builtinId="18" customBuiltin="1"/>
     <cellStyle name="標題 4" xfId="41" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="樣式 1" xfId="42"/>
     <cellStyle name="輸入" xfId="43" builtinId="20" customBuiltin="1"/>
     <cellStyle name="輸出" xfId="44" builtinId="21" customBuiltin="1"/>
     <cellStyle name="檢查儲存格" xfId="45" builtinId="23" customBuiltin="1"/>
@@ -4002,211 +4038,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="修訂履歷"/>
-      <sheetName val="檢視記錄"/>
-      <sheetName val="改善明細"/>
-      <sheetName val="備註說明"/>
-      <sheetName val="檢視重點項目"/>
-      <sheetName val="檢視項目清單"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2">
-        <row r="1">
-          <cell r="A1" t="str">
-            <v>文件名稱：</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>Review階段-第N次</v>
-          </cell>
-          <cell r="J2" t="str">
-            <v>對應完成</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>SA PM-1</v>
-          </cell>
-          <cell r="J3" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>SA PM-2</v>
-          </cell>
-          <cell r="J4" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>SA PM-2</v>
-          </cell>
-          <cell r="J5" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>SD PM-3</v>
-          </cell>
-          <cell r="J6" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>SD PM-3</v>
-          </cell>
-          <cell r="J7" t="str">
-            <v>V</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>SD PM-3</v>
-          </cell>
-          <cell r="J8" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="J28" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="J29" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="J30" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="J31" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="J32" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="J33" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="J34" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="J35" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="J36" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="J37" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="J38" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="J39" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="J40" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="J41" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="J42" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="J43" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="J44" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="J45" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="J46" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="J47" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="J48" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="J49" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="J50" t="str">
-            <v/>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="J51" t="str">
-            <v/>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
@@ -4250,7 +4081,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4285,7 +4116,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4761,10 +4592,10 @@
   <dimension ref="A1:T70"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <pane xSplit="2" ySplit="6" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="6" topLeftCell="G7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="I8" sqref="I8"/>
+      <selection pane="bottomRight" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -4893,23 +4724,26 @@
       </c>
       <c r="C5" s="99">
         <f>COUNTIF($C$7:$C$26,"&gt;""")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D5" s="108">
         <f>SUM($M$7:$M$26)</f>
-        <v>5.9999999999999947</v>
+        <v>13.999999999999988</v>
       </c>
       <c r="E5" s="99">
-        <v>3</v>
+        <f>SUM($J$7:$J$26)</f>
+        <v>7</v>
       </c>
       <c r="F5" s="109">
-        <v>1</v>
-      </c>
-      <c r="G5" s="109" t="e">
+        <f ca="1">SUM($N$7:$N$26)</f>
+        <v>5</v>
+      </c>
+      <c r="G5" s="109">
         <f ca="1">SUM($O$7:$O$26)</f>
-        <v>#VALUE!</v>
+        <v>5</v>
       </c>
       <c r="H5" s="110">
+        <f ca="1">F5-G5</f>
         <v>0</v>
       </c>
       <c r="I5" s="53"/>
@@ -4991,13 +4825,13 @@
         <v>379</v>
       </c>
       <c r="D7" s="140" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E7" s="66">
         <v>41596</v>
       </c>
       <c r="F7" s="140" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G7" s="66">
         <v>41596</v>
@@ -5012,22 +4846,22 @@
         <v>3</v>
       </c>
       <c r="K7" s="68" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="L7" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="M7" s="70">
         <f>IF(C7="","",J7*(I7-H7)*24)</f>
         <v>5.9999999999999947</v>
       </c>
-      <c r="N7" s="63" t="e">
-        <f ca="1">IF(C7="","",COUNTIF([1]改善明細!A:A,Q7))</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="O7" s="63" t="e">
-        <f ca="1">IF(C7="","",COUNTIFS([1]改善明細!$A:$A,Q7, [1]改善明細!$J:$J,"V"))</f>
-        <v>#VALUE!</v>
+      <c r="N7" s="63">
+        <f ca="1">IF(C7="","",COUNTIF(改善明細!A:A,Q7))</f>
+        <v>5</v>
+      </c>
+      <c r="O7" s="63">
+        <f ca="1">IF(C7="","",COUNTIFS(改善明細!$A:$A,Q7, 改善明細!$J:$J,"V"))</f>
+        <v>5</v>
       </c>
       <c r="P7" s="71" t="str">
         <f t="shared" ref="P7:P10" ca="1" si="0">IF(Q7="","",LEFT(Q7,FIND("-",Q7)-1))</f>
@@ -5039,28 +4873,63 @@
       </c>
       <c r="R7" s="72"/>
     </row>
-    <row r="8" spans="1:20" s="55" customFormat="1" ht="16.5">
-      <c r="A8" s="64"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="65"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="66"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="66"/>
-      <c r="H8" s="67"/>
-      <c r="I8" s="67"/>
-      <c r="J8" s="65"/>
-      <c r="K8" s="68"/>
-      <c r="L8" s="69"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="63"/>
-      <c r="O8" s="63"/>
+    <row r="8" spans="1:20" s="55" customFormat="1" ht="33">
+      <c r="A8" s="64" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" s="1">
+        <f ca="1">IF(A8="","",COUNTIF(OFFSET($A$6,1,,,):OFFSET(B8,,-1,,),OFFSET(B8,,-1,,)))</f>
+        <v>2</v>
+      </c>
+      <c r="C8" s="65" t="s">
+        <v>398</v>
+      </c>
+      <c r="D8" s="140" t="s">
+        <v>399</v>
+      </c>
+      <c r="E8" s="66">
+        <v>41598</v>
+      </c>
+      <c r="F8" s="140" t="s">
+        <v>400</v>
+      </c>
+      <c r="G8" s="66">
+        <v>41598</v>
+      </c>
+      <c r="H8" s="67">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I8" s="67">
+        <v>0.72916666666666663</v>
+      </c>
+      <c r="J8" s="65">
+        <v>4</v>
+      </c>
+      <c r="K8" s="68" t="s">
+        <v>401</v>
+      </c>
+      <c r="L8" s="69" t="s">
+        <v>402</v>
+      </c>
+      <c r="M8" s="70">
+        <f>IF(C8="","",J8*(I8-H8)*24)</f>
+        <v>7.9999999999999929</v>
+      </c>
+      <c r="N8" s="63">
+        <f ca="1">IF(C8="","",COUNTIF(改善明細!A:A,Q8))</f>
+        <v>0</v>
+      </c>
+      <c r="O8" s="63">
+        <f ca="1">IF(C8="","",COUNTIFS(改善明細!$A:$A,Q8, 改善明細!$J:$J,"V"))</f>
+        <v>0</v>
+      </c>
       <c r="P8" s="71" t="str">
-        <f t="shared" ref="P8" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
+        <f t="shared" ref="P8" ca="1" si="1">IF(Q8="","",LEFT(Q8,FIND("-",Q8)-1))</f>
         <v>SA PM</v>
       </c>
-      <c r="Q8" s="71" t="s">
-        <v>382</v>
+      <c r="Q8" s="71" t="str">
+        <f ca="1">IF(OR(A8="",B8=""),"",A8&amp;"-"&amp;B8)</f>
+        <v>SA PM-2</v>
       </c>
       <c r="R8" s="72"/>
     </row>
@@ -5078,8 +4947,14 @@
       <c r="K9" s="68"/>
       <c r="L9" s="69"/>
       <c r="M9" s="70"/>
-      <c r="N9" s="63"/>
-      <c r="O9" s="63"/>
+      <c r="N9" s="63" t="str">
+        <f>IF(C9="","",COUNTIF(改善明細!A:A,Q9))</f>
+        <v/>
+      </c>
+      <c r="O9" s="63" t="str">
+        <f>IF(C9="","",COUNTIFS(改善明細!$A:$A,Q9, 改善明細!$J:$J,"V"))</f>
+        <v/>
+      </c>
       <c r="P9" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5104,8 +4979,14 @@
       <c r="K10" s="68"/>
       <c r="L10" s="69"/>
       <c r="M10" s="70"/>
-      <c r="N10" s="63"/>
-      <c r="O10" s="63"/>
+      <c r="N10" s="63" t="str">
+        <f>IF(C10="","",COUNTIF(改善明細!A:A,Q10))</f>
+        <v/>
+      </c>
+      <c r="O10" s="63" t="str">
+        <f>IF(C10="","",COUNTIFS(改善明細!$A:$A,Q10, 改善明細!$J:$J,"V"))</f>
+        <v/>
+      </c>
       <c r="P10" s="71" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -5991,13 +5872,13 @@
     <tabColor indexed="41"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:R116"/>
+  <dimension ref="A1:R118"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="H3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="J3" sqref="J3:J4"/>
+      <selection pane="bottomRight" activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="31.15" customHeight="1"/>
@@ -6092,24 +5973,26 @@
     </row>
     <row r="3" spans="1:18" s="23" customFormat="1" ht="39.75" customHeight="1">
       <c r="A3" s="40" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B3" s="41" t="s">
         <v>381</v>
       </c>
       <c r="C3" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="D3" s="43" t="s">
+        <v>403</v>
+      </c>
+      <c r="E3" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="F3" s="46" t="s">
         <v>389</v>
       </c>
-      <c r="D3" s="43" t="s">
-        <v>401</v>
-      </c>
-      <c r="E3" s="45" t="s">
-        <v>385</v>
-      </c>
-      <c r="F3" s="46" t="s">
-        <v>390</v>
-      </c>
-      <c r="G3" s="44"/>
+      <c r="G3" s="44" t="s">
+        <v>396</v>
+      </c>
       <c r="H3" s="91">
         <v>41597</v>
       </c>
@@ -6121,11 +6004,11 @@
         <v>V</v>
       </c>
       <c r="K3" s="89" t="str">
-        <f t="shared" ref="K3" si="0">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
+        <f t="shared" ref="K3:K7" si="0">IF(OR(J3&lt;&gt;"",C3=""),"","V")</f>
         <v/>
       </c>
       <c r="L3" s="90" t="str">
-        <f t="shared" ref="L3:L19" si="1">IF(A3="","",LEFT(A3,FIND("-",A3)-1))</f>
+        <f t="shared" ref="L3:L21" si="1">IF(A3="","",LEFT(A3,FIND("-",A3)-1))</f>
         <v>SA PM</v>
       </c>
       <c r="M3" s="90"/>
@@ -6133,26 +6016,28 @@
       <c r="O3" s="22"/>
       <c r="P3" s="22"/>
     </row>
-    <row r="4" spans="1:18" s="23" customFormat="1" ht="48.75" customHeight="1">
+    <row r="4" spans="1:18" s="23" customFormat="1" ht="39.75" customHeight="1">
       <c r="A4" s="40" t="s">
-        <v>391</v>
+        <v>406</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>392</v>
+        <v>405</v>
       </c>
       <c r="C4" s="42" t="s">
+        <v>388</v>
+      </c>
+      <c r="D4" s="43" t="s">
+        <v>404</v>
+      </c>
+      <c r="E4" s="45" t="s">
+        <v>384</v>
+      </c>
+      <c r="F4" s="46" t="s">
+        <v>389</v>
+      </c>
+      <c r="G4" s="44" t="s">
         <v>396</v>
       </c>
-      <c r="D4" s="43" t="s">
-        <v>397</v>
-      </c>
-      <c r="E4" s="45" t="s">
-        <v>393</v>
-      </c>
-      <c r="F4" s="46" t="s">
-        <v>394</v>
-      </c>
-      <c r="G4" s="44"/>
       <c r="H4" s="91">
         <v>41597</v>
       </c>
@@ -6163,9 +6048,12 @@
         <f>IF(I4="","","V")</f>
         <v>V</v>
       </c>
-      <c r="K4" s="89"/>
+      <c r="K4" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="L4" s="90" t="str">
-        <f t="shared" ref="L4:L11" si="2">IF(A4="","",LEFT(A4,FIND("-",A4)-1))</f>
+        <f t="shared" si="1"/>
         <v>SA PM</v>
       </c>
       <c r="M4" s="90"/>
@@ -6173,26 +6061,28 @@
       <c r="O4" s="22"/>
       <c r="P4" s="22"/>
     </row>
-    <row r="5" spans="1:18" s="23" customFormat="1" ht="46.5" customHeight="1">
+    <row r="5" spans="1:18" s="23" customFormat="1" ht="48.75" customHeight="1">
       <c r="A5" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>407</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="D5" s="43" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5" s="45" t="s">
         <v>391</v>
       </c>
-      <c r="B5" s="41" t="s">
-        <v>395</v>
-      </c>
-      <c r="C5" s="42" t="s">
-        <v>398</v>
-      </c>
-      <c r="D5" s="43" t="s">
-        <v>399</v>
-      </c>
-      <c r="E5" s="45" t="s">
-        <v>400</v>
-      </c>
       <c r="F5" s="46" t="s">
-        <v>394</v>
-      </c>
-      <c r="G5" s="44"/>
+        <v>397</v>
+      </c>
+      <c r="G5" s="44" t="s">
+        <v>396</v>
+      </c>
       <c r="H5" s="91">
         <v>41597</v>
       </c>
@@ -6203,9 +6093,12 @@
         <f>IF(I5="","","V")</f>
         <v>V</v>
       </c>
-      <c r="K5" s="89"/>
+      <c r="K5" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="L5" s="90" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="L5:L13" si="2">IF(A5="","",LEFT(A5,FIND("-",A5)-1))</f>
         <v>SA PM</v>
       </c>
       <c r="M5" s="90"/>
@@ -6213,42 +6106,90 @@
       <c r="O5" s="22"/>
       <c r="P5" s="22"/>
     </row>
-    <row r="6" spans="1:18" s="23" customFormat="1" ht="16.5">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="42"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="91"/>
-      <c r="I6" s="91"/>
-      <c r="J6" s="89"/>
-      <c r="K6" s="89"/>
+    <row r="6" spans="1:18" s="23" customFormat="1" ht="48.75" customHeight="1">
+      <c r="A6" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>408</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>392</v>
+      </c>
+      <c r="D6" s="43" t="s">
+        <v>410</v>
+      </c>
+      <c r="E6" s="45" t="s">
+        <v>391</v>
+      </c>
+      <c r="F6" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="G6" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="H6" s="91">
+        <v>41597</v>
+      </c>
+      <c r="I6" s="91">
+        <v>41597</v>
+      </c>
+      <c r="J6" s="89" t="str">
+        <f>IF(I6="","","V")</f>
+        <v>V</v>
+      </c>
+      <c r="K6" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="L6" s="90" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M6" s="90"/>
       <c r="N6" s="36"/>
       <c r="O6" s="22"/>
       <c r="P6" s="22"/>
     </row>
-    <row r="7" spans="1:18" s="23" customFormat="1" ht="16.5">
-      <c r="A7" s="40"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="42"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="46"/>
-      <c r="H7" s="91"/>
-      <c r="I7" s="92"/>
-      <c r="J7" s="89"/>
-      <c r="K7" s="89"/>
+    <row r="7" spans="1:18" s="23" customFormat="1" ht="46.5" customHeight="1">
+      <c r="A7" s="40" t="s">
+        <v>390</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>411</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>393</v>
+      </c>
+      <c r="D7" s="43" t="s">
+        <v>394</v>
+      </c>
+      <c r="E7" s="45" t="s">
+        <v>395</v>
+      </c>
+      <c r="F7" s="46" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="44" t="s">
+        <v>396</v>
+      </c>
+      <c r="H7" s="91">
+        <v>41597</v>
+      </c>
+      <c r="I7" s="91">
+        <v>41597</v>
+      </c>
+      <c r="J7" s="89" t="str">
+        <f>IF(I7="","","V")</f>
+        <v>V</v>
+      </c>
+      <c r="K7" s="89" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
       <c r="L7" s="90" t="str">
         <f t="shared" si="2"/>
-        <v/>
+        <v>SA PM</v>
       </c>
       <c r="M7" s="90"/>
       <c r="N7" s="36"/>
@@ -6297,7 +6238,7 @@
       <c r="O9" s="22"/>
       <c r="P9" s="22"/>
     </row>
-    <row r="10" spans="1:18" s="23" customFormat="1" ht="36" customHeight="1">
+    <row r="10" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A10" s="40"/>
       <c r="B10" s="41"/>
       <c r="C10" s="42"/>
@@ -6318,7 +6259,7 @@
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
     </row>
-    <row r="11" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="11" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A11" s="40"/>
       <c r="B11" s="41"/>
       <c r="C11" s="42"/>
@@ -6327,7 +6268,7 @@
       <c r="F11" s="46"/>
       <c r="G11" s="46"/>
       <c r="H11" s="91"/>
-      <c r="I11" s="91"/>
+      <c r="I11" s="92"/>
       <c r="J11" s="89"/>
       <c r="K11" s="89"/>
       <c r="L11" s="90" t="str">
@@ -6339,7 +6280,7 @@
       <c r="O11" s="22"/>
       <c r="P11" s="22"/>
     </row>
-    <row r="12" spans="1:18" s="23" customFormat="1" ht="16.5">
+    <row r="12" spans="1:18" s="23" customFormat="1" ht="36" customHeight="1">
       <c r="A12" s="40"/>
       <c r="B12" s="41"/>
       <c r="C12" s="42"/>
@@ -6352,7 +6293,7 @@
       <c r="J12" s="89"/>
       <c r="K12" s="89"/>
       <c r="L12" s="90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M12" s="90"/>
@@ -6373,7 +6314,7 @@
       <c r="J13" s="89"/>
       <c r="K13" s="89"/>
       <c r="L13" s="90" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="M13" s="90"/>
@@ -6381,7 +6322,7 @@
       <c r="O13" s="22"/>
       <c r="P13" s="22"/>
     </row>
-    <row r="14" spans="1:18" s="23" customFormat="1" ht="36.75" customHeight="1">
+    <row r="14" spans="1:18" s="23" customFormat="1" ht="16.5">
       <c r="A14" s="40"/>
       <c r="B14" s="41"/>
       <c r="C14" s="42"/>
@@ -6402,7 +6343,7 @@
       <c r="O14" s="22"/>
       <c r="P14" s="22"/>
     </row>
-    <row r="15" spans="1:18" s="23" customFormat="1" ht="39" customHeight="1">
+    <row r="15" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A15" s="40"/>
       <c r="B15" s="41"/>
       <c r="C15" s="42"/>
@@ -6423,7 +6364,7 @@
       <c r="O15" s="22"/>
       <c r="P15" s="22"/>
     </row>
-    <row r="16" spans="1:18" s="23" customFormat="1" ht="39" customHeight="1">
+    <row r="16" spans="1:18" s="23" customFormat="1" ht="36.75" customHeight="1">
       <c r="A16" s="40"/>
       <c r="B16" s="41"/>
       <c r="C16" s="42"/>
@@ -6444,7 +6385,7 @@
       <c r="O16" s="22"/>
       <c r="P16" s="22"/>
     </row>
-    <row r="17" spans="1:16" s="23" customFormat="1" ht="39.75" customHeight="1">
+    <row r="17" spans="1:16" s="23" customFormat="1" ht="39" customHeight="1">
       <c r="A17" s="40"/>
       <c r="B17" s="41"/>
       <c r="C17" s="42"/>
@@ -6472,7 +6413,7 @@
       <c r="D18" s="43"/>
       <c r="E18" s="45"/>
       <c r="F18" s="46"/>
-      <c r="G18" s="44"/>
+      <c r="G18" s="46"/>
       <c r="H18" s="91"/>
       <c r="I18" s="91"/>
       <c r="J18" s="89"/>
@@ -6486,14 +6427,14 @@
       <c r="O18" s="22"/>
       <c r="P18" s="22"/>
     </row>
-    <row r="19" spans="1:16" s="23" customFormat="1" ht="37.5" customHeight="1">
+    <row r="19" spans="1:16" s="23" customFormat="1" ht="39.75" customHeight="1">
       <c r="A19" s="40"/>
       <c r="B19" s="41"/>
       <c r="C19" s="42"/>
       <c r="D19" s="43"/>
       <c r="E19" s="45"/>
       <c r="F19" s="46"/>
-      <c r="G19" s="44"/>
+      <c r="G19" s="46"/>
       <c r="H19" s="91"/>
       <c r="I19" s="91"/>
       <c r="J19" s="89"/>
@@ -6507,20 +6448,20 @@
       <c r="O19" s="22"/>
       <c r="P19" s="22"/>
     </row>
-    <row r="20" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="20" spans="1:16" s="23" customFormat="1" ht="39" customHeight="1">
       <c r="A20" s="40"/>
       <c r="B20" s="41"/>
       <c r="C20" s="42"/>
       <c r="D20" s="43"/>
       <c r="E20" s="45"/>
       <c r="F20" s="46"/>
-      <c r="G20" s="46"/>
+      <c r="G20" s="44"/>
       <c r="H20" s="91"/>
       <c r="I20" s="91"/>
       <c r="J20" s="89"/>
       <c r="K20" s="89"/>
       <c r="L20" s="90" t="str">
-        <f t="shared" ref="L20:L45" si="3">IF(A20="","",LEFT(A20,FIND("-",A20)-1))</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M20" s="90"/>
@@ -6528,20 +6469,20 @@
       <c r="O20" s="22"/>
       <c r="P20" s="22"/>
     </row>
-    <row r="21" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
+    <row r="21" spans="1:16" s="23" customFormat="1" ht="37.5" customHeight="1">
       <c r="A21" s="40"/>
       <c r="B21" s="41"/>
-      <c r="C21" s="48"/>
+      <c r="C21" s="42"/>
       <c r="D21" s="43"/>
       <c r="E21" s="45"/>
       <c r="F21" s="46"/>
-      <c r="G21" s="46"/>
+      <c r="G21" s="44"/>
       <c r="H21" s="91"/>
-      <c r="I21" s="92"/>
+      <c r="I21" s="91"/>
       <c r="J21" s="89"/>
       <c r="K21" s="89"/>
       <c r="L21" s="90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="M21" s="90"/>
@@ -6552,7 +6493,7 @@
     <row r="22" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A22" s="40"/>
       <c r="B22" s="41"/>
-      <c r="C22" s="48"/>
+      <c r="C22" s="42"/>
       <c r="D22" s="43"/>
       <c r="E22" s="45"/>
       <c r="F22" s="46"/>
@@ -6562,7 +6503,7 @@
       <c r="J22" s="89"/>
       <c r="K22" s="89"/>
       <c r="L22" s="90" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="L22:L47" si="3">IF(A22="","",LEFT(A22,FIND("-",A22)-1))</f>
         <v/>
       </c>
       <c r="M22" s="90"/>
@@ -6579,7 +6520,7 @@
       <c r="F23" s="46"/>
       <c r="G23" s="46"/>
       <c r="H23" s="91"/>
-      <c r="I23" s="91"/>
+      <c r="I23" s="92"/>
       <c r="J23" s="89"/>
       <c r="K23" s="89"/>
       <c r="L23" s="90" t="str">
@@ -6600,7 +6541,7 @@
       <c r="F24" s="46"/>
       <c r="G24" s="46"/>
       <c r="H24" s="91"/>
-      <c r="I24" s="92"/>
+      <c r="I24" s="91"/>
       <c r="J24" s="89"/>
       <c r="K24" s="89"/>
       <c r="L24" s="90" t="str">
@@ -6620,8 +6561,8 @@
       <c r="E25" s="45"/>
       <c r="F25" s="46"/>
       <c r="G25" s="46"/>
-      <c r="H25" s="92"/>
-      <c r="I25" s="92"/>
+      <c r="H25" s="91"/>
+      <c r="I25" s="91"/>
       <c r="J25" s="89"/>
       <c r="K25" s="89"/>
       <c r="L25" s="90" t="str">
@@ -6641,7 +6582,7 @@
       <c r="E26" s="45"/>
       <c r="F26" s="46"/>
       <c r="G26" s="46"/>
-      <c r="H26" s="92"/>
+      <c r="H26" s="91"/>
       <c r="I26" s="92"/>
       <c r="J26" s="89"/>
       <c r="K26" s="89"/>
@@ -6705,7 +6646,7 @@
       <c r="F29" s="46"/>
       <c r="G29" s="46"/>
       <c r="H29" s="92"/>
-      <c r="I29" s="91"/>
+      <c r="I29" s="92"/>
       <c r="J29" s="89"/>
       <c r="K29" s="89"/>
       <c r="L29" s="90" t="str">
@@ -6717,7 +6658,7 @@
       <c r="O29" s="22"/>
       <c r="P29" s="22"/>
     </row>
-    <row r="30" spans="1:16" s="23" customFormat="1" ht="41.25" customHeight="1">
+    <row r="30" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A30" s="40"/>
       <c r="B30" s="41"/>
       <c r="C30" s="48"/>
@@ -6726,7 +6667,7 @@
       <c r="F30" s="46"/>
       <c r="G30" s="46"/>
       <c r="H30" s="92"/>
-      <c r="I30" s="91"/>
+      <c r="I30" s="92"/>
       <c r="J30" s="89"/>
       <c r="K30" s="89"/>
       <c r="L30" s="90" t="str">
@@ -6739,7 +6680,7 @@
       <c r="P30" s="22"/>
     </row>
     <row r="31" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A31" s="47"/>
+      <c r="A31" s="40"/>
       <c r="B31" s="41"/>
       <c r="C31" s="48"/>
       <c r="D31" s="43"/>
@@ -6748,14 +6689,8 @@
       <c r="G31" s="46"/>
       <c r="H31" s="92"/>
       <c r="I31" s="91"/>
-      <c r="J31" s="89" t="str">
-        <f t="shared" ref="J31:J45" si="4">IF(I31="","","V")</f>
-        <v/>
-      </c>
-      <c r="K31" s="89" t="str">
-        <f t="shared" ref="K31:K45" si="5">IF(OR(J31&lt;&gt;"",C31=""),"","V")</f>
-        <v/>
-      </c>
+      <c r="J31" s="89"/>
+      <c r="K31" s="89"/>
       <c r="L31" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6765,8 +6700,8 @@
       <c r="O31" s="22"/>
       <c r="P31" s="22"/>
     </row>
-    <row r="32" spans="1:16" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A32" s="47"/>
+    <row r="32" spans="1:16" s="23" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A32" s="40"/>
       <c r="B32" s="41"/>
       <c r="C32" s="48"/>
       <c r="D32" s="43"/>
@@ -6775,14 +6710,8 @@
       <c r="G32" s="46"/>
       <c r="H32" s="92"/>
       <c r="I32" s="91"/>
-      <c r="J32" s="89" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
-      <c r="K32" s="89" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="J32" s="89"/>
+      <c r="K32" s="89"/>
       <c r="L32" s="90" t="str">
         <f t="shared" si="3"/>
         <v/>
@@ -6803,11 +6732,11 @@
       <c r="H33" s="92"/>
       <c r="I33" s="91"/>
       <c r="J33" s="89" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="J33:J47" si="4">IF(I33="","","V")</f>
         <v/>
       </c>
       <c r="K33" s="89" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="K33:K47" si="5">IF(OR(J33&lt;&gt;"",C33=""),"","V")</f>
         <v/>
       </c>
       <c r="L33" s="90" t="str">
@@ -7154,15 +7083,15 @@
       <c r="H46" s="92"/>
       <c r="I46" s="91"/>
       <c r="J46" s="89" t="str">
-        <f t="shared" ref="J46:J54" si="6">IF(I46="","","V")</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K46" s="89" t="str">
-        <f t="shared" ref="K46:K54" si="7">IF(OR(J46&lt;&gt;"",C46=""),"","V")</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L46" s="90" t="str">
-        <f t="shared" ref="L46:L54" si="8">IF(A46="","",LEFT(A46,FIND("-",A46)-1))</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M46" s="90"/>
@@ -7181,15 +7110,15 @@
       <c r="H47" s="92"/>
       <c r="I47" s="91"/>
       <c r="J47" s="89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="K47" s="89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="L47" s="90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="M47" s="90"/>
@@ -7208,15 +7137,15 @@
       <c r="H48" s="92"/>
       <c r="I48" s="91"/>
       <c r="J48" s="89" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="J48:J56" si="6">IF(I48="","","V")</f>
         <v/>
       </c>
       <c r="K48" s="89" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="K48:K56" si="7">IF(OR(J48&lt;&gt;"",C48=""),"","V")</f>
         <v/>
       </c>
       <c r="L48" s="90" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="L48:L56" si="8">IF(A48="","",LEFT(A48,FIND("-",A48)-1))</f>
         <v/>
       </c>
       <c r="M48" s="90"/>
@@ -7387,44 +7316,58 @@
       <c r="P54" s="22"/>
     </row>
     <row r="55" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A55" s="86"/>
-      <c r="B55" s="86"/>
-      <c r="C55" s="86"/>
-      <c r="D55" s="87"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="86"/>
-      <c r="G55" s="86"/>
-      <c r="H55" s="88"/>
-      <c r="I55" s="88"/>
-      <c r="J55" s="22"/>
-      <c r="K55" s="22"/>
-      <c r="L55" s="22"/>
-      <c r="M55" s="22"/>
-      <c r="N55" s="22"/>
+      <c r="A55" s="47"/>
+      <c r="B55" s="41"/>
+      <c r="C55" s="48"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="45"/>
+      <c r="F55" s="46"/>
+      <c r="G55" s="46"/>
+      <c r="H55" s="92"/>
+      <c r="I55" s="91"/>
+      <c r="J55" s="89" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K55" s="89" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L55" s="90" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M55" s="90"/>
+      <c r="N55" s="36"/>
       <c r="O55" s="22"/>
       <c r="P55" s="22"/>
-      <c r="Q55" s="22"/>
-      <c r="R55" s="22"/>
     </row>
     <row r="56" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
-      <c r="A56" s="86"/>
-      <c r="B56" s="86"/>
-      <c r="C56" s="86"/>
-      <c r="D56" s="87"/>
-      <c r="E56" s="86"/>
-      <c r="F56" s="86"/>
-      <c r="G56" s="86"/>
-      <c r="H56" s="88"/>
-      <c r="I56" s="88"/>
-      <c r="J56" s="22"/>
-      <c r="K56" s="22"/>
-      <c r="L56" s="22"/>
-      <c r="M56" s="22"/>
-      <c r="N56" s="22"/>
+      <c r="A56" s="47"/>
+      <c r="B56" s="41"/>
+      <c r="C56" s="48"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="45"/>
+      <c r="F56" s="46"/>
+      <c r="G56" s="46"/>
+      <c r="H56" s="92"/>
+      <c r="I56" s="91"/>
+      <c r="J56" s="89" t="str">
+        <f t="shared" si="6"/>
+        <v/>
+      </c>
+      <c r="K56" s="89" t="str">
+        <f t="shared" si="7"/>
+        <v/>
+      </c>
+      <c r="L56" s="90" t="str">
+        <f t="shared" si="8"/>
+        <v/>
+      </c>
+      <c r="M56" s="90"/>
+      <c r="N56" s="36"/>
       <c r="O56" s="22"/>
       <c r="P56" s="22"/>
-      <c r="Q56" s="22"/>
-      <c r="R56" s="22"/>
     </row>
     <row r="57" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
       <c r="A57" s="86"/>
@@ -8486,11 +8429,45 @@
       <c r="Q109" s="22"/>
       <c r="R109" s="22"/>
     </row>
-    <row r="110" spans="1:18" ht="31.15" customHeight="1">
+    <row r="110" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+      <c r="A110" s="86"/>
+      <c r="B110" s="86"/>
+      <c r="C110" s="86"/>
+      <c r="D110" s="87"/>
+      <c r="E110" s="86"/>
+      <c r="F110" s="86"/>
+      <c r="G110" s="86"/>
+      <c r="H110" s="88"/>
       <c r="I110" s="88"/>
-    </row>
-    <row r="111" spans="1:18" ht="31.15" customHeight="1">
+      <c r="J110" s="22"/>
+      <c r="K110" s="22"/>
+      <c r="L110" s="22"/>
+      <c r="M110" s="22"/>
+      <c r="N110" s="22"/>
+      <c r="O110" s="22"/>
+      <c r="P110" s="22"/>
+      <c r="Q110" s="22"/>
+      <c r="R110" s="22"/>
+    </row>
+    <row r="111" spans="1:18" s="23" customFormat="1" ht="31.15" customHeight="1">
+      <c r="A111" s="86"/>
+      <c r="B111" s="86"/>
+      <c r="C111" s="86"/>
+      <c r="D111" s="87"/>
+      <c r="E111" s="86"/>
+      <c r="F111" s="86"/>
+      <c r="G111" s="86"/>
+      <c r="H111" s="88"/>
       <c r="I111" s="88"/>
+      <c r="J111" s="22"/>
+      <c r="K111" s="22"/>
+      <c r="L111" s="22"/>
+      <c r="M111" s="22"/>
+      <c r="N111" s="22"/>
+      <c r="O111" s="22"/>
+      <c r="P111" s="22"/>
+      <c r="Q111" s="22"/>
+      <c r="R111" s="22"/>
     </row>
     <row r="112" spans="1:18" ht="31.15" customHeight="1">
       <c r="I112" s="88"/>
@@ -8506,24 +8483,30 @@
     </row>
     <row r="116" spans="9:9" ht="31.15" customHeight="1">
       <c r="I116" s="88"/>
+    </row>
+    <row r="117" spans="9:9" ht="31.15" customHeight="1">
+      <c r="I117" s="88"/>
+    </row>
+    <row r="118" spans="9:9" ht="31.15" customHeight="1">
+      <c r="I118" s="88"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <phoneticPr fontId="23" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C55:C65 D66:E109">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C57:C67 D68:E111">
       <formula1>"需求,分析,資安,設計,測試,規範,SLA,其他"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J3:K56">
       <formula1>"V"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A54">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A3:A56">
       <formula1>次數選單</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F65515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F3:F65517">
       <formula1>植入Bug來源</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G65515">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G3:G65517">
       <formula1>原因分類</formula1>
     </dataValidation>
   </dataValidations>
@@ -8546,7 +8529,7 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
